--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>151.5578920490928</v>
+        <v>175.663453495101</v>
       </c>
       <c r="R2">
-        <v>151.5578920490928</v>
+        <v>702.653813980404</v>
       </c>
       <c r="S2">
-        <v>0.01833445762870338</v>
+        <v>0.01631455027760146</v>
       </c>
       <c r="T2">
-        <v>0.01833445762870338</v>
+        <v>0.009020423440837153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>38.77229115428228</v>
+        <v>42.000105228774</v>
       </c>
       <c r="R3">
-        <v>38.77229115428228</v>
+        <v>252.000631372644</v>
       </c>
       <c r="S3">
-        <v>0.004690411826958334</v>
+        <v>0.003900713636137723</v>
       </c>
       <c r="T3">
-        <v>0.004690411826958334</v>
+        <v>0.003235095799825766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>7.55918559820924</v>
+        <v>7.920357816888001</v>
       </c>
       <c r="R4">
-        <v>7.55918559820924</v>
+        <v>47.522146901328</v>
       </c>
       <c r="S4">
-        <v>0.0009144595915399691</v>
+        <v>0.0007355945317551024</v>
       </c>
       <c r="T4">
-        <v>0.0009144595915399691</v>
+        <v>0.0006100726692698216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>10.74199027910348</v>
+        <v>11.29806998364</v>
       </c>
       <c r="R5">
-        <v>10.74199027910348</v>
+        <v>67.78841990184002</v>
       </c>
       <c r="S5">
-        <v>0.001299493962058872</v>
+        <v>0.001049295838835909</v>
       </c>
       <c r="T5">
-        <v>0.001299493962058872</v>
+        <v>0.0008702439803691476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>113.6739567121326</v>
+        <v>126.641400409172</v>
       </c>
       <c r="R6">
-        <v>113.6739567121326</v>
+        <v>759.8484024550321</v>
       </c>
       <c r="S6">
-        <v>0.01375151313235841</v>
+        <v>0.0117616809478183</v>
       </c>
       <c r="T6">
-        <v>0.01375151313235841</v>
+        <v>0.009754667525620498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>18.56162498537459</v>
+        <v>19.35928184091</v>
       </c>
       <c r="R7">
-        <v>18.56162498537459</v>
+        <v>77.43712736364002</v>
       </c>
       <c r="S7">
-        <v>0.002245460940456974</v>
+        <v>0.001797972034863765</v>
       </c>
       <c r="T7">
-        <v>0.002245460940456974</v>
+        <v>0.0009941107056761114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>372.5984075423017</v>
+        <v>461.9939168585151</v>
       </c>
       <c r="R8">
-        <v>372.5984075423017</v>
+        <v>2771.963501151091</v>
       </c>
       <c r="S8">
-        <v>0.04507445718098174</v>
+        <v>0.04290717752935716</v>
       </c>
       <c r="T8">
-        <v>0.04507445718098174</v>
+        <v>0.03558549607990267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>95.31997143489252</v>
+        <v>110.4600458265057</v>
       </c>
       <c r="R9">
-        <v>95.31997143489252</v>
+        <v>994.1404124385509</v>
       </c>
       <c r="S9">
-        <v>0.01153117105162796</v>
+        <v>0.01025885541612072</v>
       </c>
       <c r="T9">
-        <v>0.01153117105162796</v>
+        <v>0.01276242624948495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>18.58392511356075</v>
+        <v>20.830497510668</v>
       </c>
       <c r="R10">
-        <v>18.58392511356075</v>
+        <v>187.474477596012</v>
       </c>
       <c r="S10">
-        <v>0.00224815866044909</v>
+        <v>0.001934609574066713</v>
       </c>
       <c r="T10">
-        <v>0.00224815866044909</v>
+        <v>0.002406731648812951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>26.40871034635639</v>
+        <v>29.71386193787334</v>
       </c>
       <c r="R11">
-        <v>26.40871034635639</v>
+        <v>267.42475744086</v>
       </c>
       <c r="S11">
-        <v>0.003194748715013355</v>
+        <v>0.002759642286895278</v>
       </c>
       <c r="T11">
-        <v>0.003194748715013355</v>
+        <v>0.003433105325387159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>279.4624197877704</v>
+        <v>333.0661867757976</v>
       </c>
       <c r="R12">
-        <v>279.4624197877704</v>
+        <v>2997.595680982178</v>
       </c>
       <c r="S12">
-        <v>0.03380748983203125</v>
+        <v>0.03093315622463434</v>
       </c>
       <c r="T12">
-        <v>0.03380748983203125</v>
+        <v>0.03848208293883671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>45.6329381297262</v>
+        <v>50.91480480030167</v>
       </c>
       <c r="R13">
-        <v>45.6329381297262</v>
+        <v>305.48882880181</v>
       </c>
       <c r="S13">
-        <v>0.005520366899413577</v>
+        <v>0.004728656566073668</v>
       </c>
       <c r="T13">
-        <v>0.005520366899413577</v>
+        <v>0.003921758535156241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>1947.268839206605</v>
+        <v>2911.916081589664</v>
       </c>
       <c r="R14">
-        <v>1947.268839206605</v>
+        <v>17471.49648953799</v>
       </c>
       <c r="S14">
-        <v>0.2355675282984488</v>
+        <v>0.2704410073469021</v>
       </c>
       <c r="T14">
-        <v>0.2355675282984488</v>
+        <v>0.2242929495934219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>498.1599662584625</v>
+        <v>696.2221191190229</v>
       </c>
       <c r="R15">
-        <v>498.1599662584625</v>
+        <v>6265.999072071206</v>
       </c>
       <c r="S15">
-        <v>0.06026405270088842</v>
+        <v>0.06466086451535182</v>
       </c>
       <c r="T15">
-        <v>0.06026405270088842</v>
+        <v>0.08044070036393663</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>97.12306212601685</v>
+        <v>131.293202086476</v>
       </c>
       <c r="R16">
-        <v>97.12306212601685</v>
+        <v>1181.638818778284</v>
       </c>
       <c r="S16">
-        <v>0.01174929687424378</v>
+        <v>0.01219371191860826</v>
       </c>
       <c r="T16">
-        <v>0.01174929687424378</v>
+        <v>0.0151694650871247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>138.016850582633</v>
+        <v>187.28444091078</v>
       </c>
       <c r="R17">
-        <v>138.016850582633</v>
+        <v>1685.55996819702</v>
       </c>
       <c r="S17">
-        <v>0.01669635322081875</v>
+        <v>0.0173938367182142</v>
       </c>
       <c r="T17">
-        <v>0.01669635322081875</v>
+        <v>0.02163862821996317</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>1460.522779395448</v>
+        <v>2099.293410833394</v>
       </c>
       <c r="R18">
-        <v>1460.522779395448</v>
+        <v>18893.64069750054</v>
       </c>
       <c r="S18">
-        <v>0.1766842534726467</v>
+        <v>0.1949695694638841</v>
       </c>
       <c r="T18">
-        <v>0.1766842534726467</v>
+        <v>0.2425499385893061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>238.4862540008853</v>
+        <v>320.912534730195</v>
       </c>
       <c r="R19">
-        <v>238.4862540008853</v>
+        <v>1925.47520838117</v>
       </c>
       <c r="S19">
-        <v>0.02885046802835628</v>
+        <v>0.02980439914164788</v>
       </c>
       <c r="T19">
-        <v>0.02885046802835628</v>
+        <v>0.02471857600265824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>873.4700234131993</v>
+        <v>1007.399370202236</v>
       </c>
       <c r="R20">
-        <v>873.4700234131993</v>
+        <v>6044.396221213414</v>
       </c>
       <c r="S20">
-        <v>0.105666547071164</v>
+        <v>0.09356110988246495</v>
       </c>
       <c r="T20">
-        <v>0.105666547071164</v>
+        <v>0.0775958406184095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>223.4554308220668</v>
+        <v>240.8633026053683</v>
       </c>
       <c r="R21">
-        <v>223.4554308220668</v>
+        <v>2167.769723448314</v>
       </c>
       <c r="S21">
-        <v>0.0270321398174617</v>
+        <v>0.02236991464188654</v>
       </c>
       <c r="T21">
-        <v>0.0270321398174617</v>
+        <v>0.02782906808255877</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>43.56567600790979</v>
+        <v>45.42187528341999</v>
       </c>
       <c r="R22">
-        <v>43.56567600790979</v>
+        <v>408.7968775507799</v>
       </c>
       <c r="S22">
-        <v>0.005270283388304904</v>
+        <v>0.004218506771159232</v>
       </c>
       <c r="T22">
-        <v>0.005270283388304904</v>
+        <v>0.005247991063922311</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>61.90905913070885</v>
+        <v>64.79246741176667</v>
       </c>
       <c r="R23">
-        <v>61.90905913070885</v>
+        <v>583.1322067059</v>
       </c>
       <c r="S23">
-        <v>0.007489342891475431</v>
+        <v>0.006017529236544363</v>
       </c>
       <c r="T23">
-        <v>0.007489342891475431</v>
+        <v>0.007486046929254542</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>655.134432713376</v>
+        <v>726.2664172618411</v>
       </c>
       <c r="R24">
-        <v>655.134432713376</v>
+        <v>6536.39775535657</v>
       </c>
       <c r="S24">
-        <v>0.07925377118465879</v>
+        <v>0.06745119570179821</v>
       </c>
       <c r="T24">
-        <v>0.07925377118465879</v>
+        <v>0.08391198390719627</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>106.9757753381159</v>
+        <v>111.0221161321083</v>
       </c>
       <c r="R25">
-        <v>106.9757753381159</v>
+        <v>666.13269679265</v>
       </c>
       <c r="S25">
-        <v>0.01294121205907943</v>
+        <v>0.01031105707832109</v>
       </c>
       <c r="T25">
-        <v>0.01294121205907943</v>
+        <v>0.00855157813606355</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>75.37853667990005</v>
+        <v>87.68758628723383</v>
       </c>
       <c r="R26">
-        <v>75.37853667990005</v>
+        <v>526.1255177234029</v>
       </c>
       <c r="S26">
-        <v>0.009118789976464073</v>
+        <v>0.008143888251886664</v>
       </c>
       <c r="T26">
-        <v>0.009118789976464073</v>
+        <v>0.006754215032307677</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>19.28371087392889</v>
+        <v>20.96558947262033</v>
       </c>
       <c r="R27">
-        <v>19.28371087392889</v>
+        <v>188.690305253583</v>
       </c>
       <c r="S27">
-        <v>0.002332814049879313</v>
+        <v>0.001947156091634936</v>
       </c>
       <c r="T27">
-        <v>0.002332814049879313</v>
+        <v>0.002422340018232088</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>3.759621760246027</v>
+        <v>3.953679867244</v>
       </c>
       <c r="R28">
-        <v>3.759621760246027</v>
+        <v>35.583118805196</v>
       </c>
       <c r="S28">
-        <v>0.0004548138333888539</v>
+        <v>0.0003671936745652776</v>
       </c>
       <c r="T28">
-        <v>0.0004548138333888539</v>
+        <v>0.0004568036102305065</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>5.342615269459195</v>
+        <v>5.639764372486668</v>
       </c>
       <c r="R29">
-        <v>5.342615269459195</v>
+        <v>50.75787935238001</v>
       </c>
       <c r="S29">
-        <v>0.000646313774624379</v>
+        <v>0.0005237869208311177</v>
       </c>
       <c r="T29">
-        <v>0.000646313774624379</v>
+        <v>0.0006516118686152348</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>56.53665671728475</v>
+        <v>63.21678473789712</v>
       </c>
       <c r="R30">
-        <v>56.53665671728475</v>
+        <v>568.951062641074</v>
       </c>
       <c r="S30">
-        <v>0.006839425667888276</v>
+        <v>0.005871189439091234</v>
       </c>
       <c r="T30">
-        <v>0.006839425667888276</v>
+        <v>0.00730399437108852</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>9.231773488545187</v>
+        <v>9.663755682288334</v>
       </c>
       <c r="R31">
-        <v>9.231773488545187</v>
+        <v>57.98253409373001</v>
       </c>
       <c r="S31">
-        <v>0.001116798060299573</v>
+        <v>0.0008975106933870381</v>
       </c>
       <c r="T31">
-        <v>0.001116798060299573</v>
+        <v>0.0007443594545304894</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>255.1225047382674</v>
+        <v>295.2835056631687</v>
       </c>
       <c r="R32">
-        <v>255.1225047382674</v>
+        <v>1181.134022652675</v>
       </c>
       <c r="S32">
-        <v>0.03086301010136305</v>
+        <v>0.02742413122045635</v>
       </c>
       <c r="T32">
-        <v>0.03086301010136305</v>
+        <v>0.01516298469135414</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>65.2667036997172</v>
+        <v>70.60056069386249</v>
       </c>
       <c r="R33">
-        <v>65.2667036997172</v>
+        <v>423.6033641631749</v>
       </c>
       <c r="S33">
-        <v>0.007895528219407998</v>
+        <v>0.006556949519946649</v>
       </c>
       <c r="T33">
-        <v>0.007895528219407998</v>
+        <v>0.005438071550582296</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>12.72463173987596</v>
+        <v>13.31381670885</v>
       </c>
       <c r="R34">
-        <v>12.72463173987596</v>
+        <v>79.88290025309999</v>
       </c>
       <c r="S34">
-        <v>0.001539340632951264</v>
+        <v>0.001236506101648294</v>
       </c>
       <c r="T34">
-        <v>0.001539340632951264</v>
+        <v>0.001025508680986417</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>18.08235406831395</v>
+        <v>18.99162088425</v>
       </c>
       <c r="R35">
-        <v>18.08235406831395</v>
+        <v>113.9497253055</v>
       </c>
       <c r="S35">
-        <v>0.002187481958282481</v>
+        <v>0.001763825927388383</v>
       </c>
       <c r="T35">
-        <v>0.002187481958282481</v>
+        <v>0.00146284664335623</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>191.3512003090852</v>
+        <v>212.879320831275</v>
       </c>
       <c r="R36">
-        <v>191.3512003090852</v>
+        <v>1277.27592498765</v>
       </c>
       <c r="S36">
-        <v>0.02314838525948907</v>
+        <v>0.01977093307493437</v>
       </c>
       <c r="T36">
-        <v>0.02314838525948907</v>
+        <v>0.01639722074360913</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>31.24540856471696</v>
+        <v>32.5422078148125</v>
       </c>
       <c r="R37">
-        <v>31.24540856471696</v>
+        <v>130.16883125925</v>
       </c>
       <c r="S37">
-        <v>0.00377986003682187</v>
+        <v>0.003022321803286875</v>
       </c>
       <c r="T37">
-        <v>0.00377986003682187</v>
+        <v>0.001671061842112282</v>
       </c>
     </row>
   </sheetData>
